--- a/esp32/Logging tests/Analyse test 1.xlsx
+++ b/esp32/Logging tests/Analyse test 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fulld\Documents\UNIVERSITÉ\COURS\S5\IMC155\Prototypage\turbo_sechoir\esp32\Logging tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BDC978-3EAF-4B9E-A4D0-473E754FDC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A4B8B1-6C76-493D-AFFF-EF5EC3D22424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9B55850D-9290-4C36-9845-CDC2D9A0FE80}"/>
   </bookViews>
@@ -21832,7 +21832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59881380-FE5A-443D-BBCC-2D0ADED2D9BF}">
   <dimension ref="A1:G514"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
